--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-16 15:44:32.346097 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-23 09:16:16.672798 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="J5" s="5">
-        <v>45916.65592988615</v>
+        <v>45923.38630303881</v>
       </c>
       <c r="K5" s="6">
-        <v>0.6559298862731481</v>
+        <v>0.3863030390277778</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -789,13 +789,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="J6" s="5">
-        <v>45916.65592988615</v>
+        <v>45923.38630303881</v>
       </c>
       <c r="K6" s="6">
-        <v>0.6559298862731481</v>
+        <v>0.3863030390277778</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="J7" s="5">
-        <v>45916.65592988615</v>
+        <v>45923.38630303881</v>
       </c>
       <c r="K7" s="6">
-        <v>0.6559298862731481</v>
+        <v>0.3863030390277778</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -847,16 +847,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"unicode"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-23 09:16:16.672798 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-23 11:08:49.328063 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,7 @@
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -753,10 +752,10 @@
         <v>45923</v>
       </c>
       <c r="J5" s="5">
-        <v>45923.38630303881</v>
+        <v>45923.46445879832</v>
       </c>
       <c r="K5" s="6">
-        <v>0.3863030390277778</v>
+        <v>0.4644587985416667</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -792,10 +791,10 @@
         <v>45923</v>
       </c>
       <c r="J6" s="5">
-        <v>45923.38630303881</v>
+        <v>45923.46445879832</v>
       </c>
       <c r="K6" s="6">
-        <v>0.3863030390277778</v>
+        <v>0.4644587985416667</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -831,10 +830,10 @@
         <v>45923</v>
       </c>
       <c r="J7" s="5">
-        <v>45923.38630303881</v>
+        <v>45923.46445879832</v>
       </c>
       <c r="K7" s="6">
-        <v>0.3863030390277778</v>
+        <v>0.4644587985416667</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -847,7 +846,7 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"numeric"</formula>
@@ -856,7 +855,7 @@
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-23 11:08:49.328063 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 08:04:00.068153 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,8 @@
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -749,13 +750,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>45923</v>
+        <v>45951</v>
       </c>
       <c r="J5" s="5">
-        <v>45923.46445879832</v>
+        <v>45951.33611057996</v>
       </c>
       <c r="K5" s="6">
-        <v>0.4644587985416667</v>
+        <v>0.3361105801736111</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -788,13 +789,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>45923</v>
+        <v>45951</v>
       </c>
       <c r="J6" s="5">
-        <v>45923.46445879832</v>
+        <v>45951.33611057996</v>
       </c>
       <c r="K6" s="6">
-        <v>0.4644587985416667</v>
+        <v>0.3361105801736111</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -827,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>45923</v>
+        <v>45951</v>
       </c>
       <c r="J7" s="5">
-        <v>45923.46445879832</v>
+        <v>45951.33611057996</v>
       </c>
       <c r="K7" s="6">
-        <v>0.4644587985416667</v>
+        <v>0.3361105801736111</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -846,16 +847,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 08:04:00.068153 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 08:18:05.445455 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,7 @@
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -753,10 +752,10 @@
         <v>45951</v>
       </c>
       <c r="J5" s="5">
-        <v>45951.33611057996</v>
+        <v>45951.34589502397</v>
       </c>
       <c r="K5" s="6">
-        <v>0.3361105801736111</v>
+        <v>0.3458950241782408</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -792,10 +791,10 @@
         <v>45951</v>
       </c>
       <c r="J6" s="5">
-        <v>45951.33611057996</v>
+        <v>45951.34589502397</v>
       </c>
       <c r="K6" s="6">
-        <v>0.3361105801736111</v>
+        <v>0.3458950241782408</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -831,10 +830,10 @@
         <v>45951</v>
       </c>
       <c r="J7" s="5">
-        <v>45951.33611057996</v>
+        <v>45951.34589502397</v>
       </c>
       <c r="K7" s="6">
-        <v>0.3361105801736111</v>
+        <v>0.3458950241782408</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -847,16 +846,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 08:18:05.445455 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 09:41:19.103138 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -752,10 +752,10 @@
         <v>45951</v>
       </c>
       <c r="J5" s="5">
-        <v>45951.34589502397</v>
+        <v>45951.40369197971</v>
       </c>
       <c r="K5" s="6">
-        <v>0.3458950241782408</v>
+        <v>0.4036919799421296</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -791,10 +791,10 @@
         <v>45951</v>
       </c>
       <c r="J6" s="5">
-        <v>45951.34589502397</v>
+        <v>45951.40369197971</v>
       </c>
       <c r="K6" s="6">
-        <v>0.3458950241782408</v>
+        <v>0.4036919799421296</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -830,10 +830,10 @@
         <v>45951</v>
       </c>
       <c r="J7" s="5">
-        <v>45951.34589502397</v>
+        <v>45951.40369197971</v>
       </c>
       <c r="K7" s="6">
-        <v>0.3458950241782408</v>
+        <v>0.4036919799421296</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -846,16 +846,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 09:41:19.103138 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 11:34:53.628173 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -752,10 +752,10 @@
         <v>45951</v>
       </c>
       <c r="J5" s="5">
-        <v>45951.40369197971</v>
+        <v>45951.48256328143</v>
       </c>
       <c r="K5" s="6">
-        <v>0.4036919799421296</v>
+        <v>0.4825632816550927</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -791,10 +791,10 @@
         <v>45951</v>
       </c>
       <c r="J6" s="5">
-        <v>45951.40369197971</v>
+        <v>45951.48256328143</v>
       </c>
       <c r="K6" s="6">
-        <v>0.4036919799421296</v>
+        <v>0.4825632816550927</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -830,10 +830,10 @@
         <v>45951</v>
       </c>
       <c r="J7" s="5">
-        <v>45951.40369197971</v>
+        <v>45951.48256328143</v>
       </c>
       <c r="K7" s="6">
-        <v>0.4036919799421296</v>
+        <v>0.4825632816550927</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -846,16 +846,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 11:34:53.628173 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 11:57:39.307787 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -752,10 +752,10 @@
         <v>45951</v>
       </c>
       <c r="J5" s="5">
-        <v>45951.48256328143</v>
+        <v>45951.49837028696</v>
       </c>
       <c r="K5" s="6">
-        <v>0.4825632816550927</v>
+        <v>0.498370287175926</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -791,10 +791,10 @@
         <v>45951</v>
       </c>
       <c r="J6" s="5">
-        <v>45951.48256328143</v>
+        <v>45951.49837028696</v>
       </c>
       <c r="K6" s="6">
-        <v>0.4825632816550927</v>
+        <v>0.498370287175926</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -830,10 +830,10 @@
         <v>45951</v>
       </c>
       <c r="J7" s="5">
-        <v>45951.48256328143</v>
+        <v>45951.49837028696</v>
       </c>
       <c r="K7" s="6">
-        <v>0.4825632816550927</v>
+        <v>0.498370287175926</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -852,10 +852,10 @@
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-21 11:57:39.307787 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-22 08:30:45.603663 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -749,13 +749,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="J5" s="5">
-        <v>45951.49837028696</v>
+        <v>45952.3546920896</v>
       </c>
       <c r="K5" s="6">
-        <v>0.498370287175926</v>
+        <v>0.3546920898148148</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -788,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="J6" s="5">
-        <v>45951.49837028696</v>
+        <v>45952.3546920896</v>
       </c>
       <c r="K6" s="6">
-        <v>0.498370287175926</v>
+        <v>0.3546920898148148</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="J7" s="5">
-        <v>45951.49837028696</v>
+        <v>45952.3546920896</v>
       </c>
       <c r="K7" s="6">
-        <v>0.498370287175926</v>
+        <v>0.3546920898148148</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -846,10 +846,10 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"boolean"</formula>

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-22 08:30:45.603663 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-22 16:05:29.800908 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -132,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-dd-mm"/>
-    <numFmt numFmtId="165" formatCode="yyyy-dd-mmThh:mm:ss&quot;+00:00&quot;"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-ddThh:mm:ss&quot;+00:00&quot;"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss&quot;+00:00&quot;"/>
-    <numFmt numFmtId="167" formatCode="&quot;P&quot;[h]:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="&quot;PT&quot;h&quot;H&quot;mm&quot;M&quot;ss&quot;S&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -217,16 +217,16 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy-dd-mm"/>
+      <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy-dd-mmThh:mm:ss&quot;+00:00&quot;"/>
+      <numFmt numFmtId="165" formatCode="yyyy-mm-ddThh:mm:ss&quot;+00:00&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="hh:mm:ss&quot;+00:00&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;P&quot;[h]:mm:ss"/>
+      <numFmt numFmtId="167" formatCode="&quot;PT&quot;h&quot;H&quot;mm&quot;M&quot;ss&quot;S&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -593,7 +593,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -752,10 +753,10 @@
         <v>45952</v>
       </c>
       <c r="J5" s="5">
-        <v>45952.3546920896</v>
+        <v>45952.67048277515</v>
       </c>
       <c r="K5" s="6">
-        <v>0.3546920898148148</v>
+        <v>0.6704827753472222</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -791,10 +792,10 @@
         <v>45952</v>
       </c>
       <c r="J6" s="5">
-        <v>45952.3546920896</v>
+        <v>45952.67048277515</v>
       </c>
       <c r="K6" s="6">
-        <v>0.3546920898148148</v>
+        <v>0.6704827753472222</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -830,10 +831,10 @@
         <v>45952</v>
       </c>
       <c r="J7" s="5">
-        <v>45952.3546920896</v>
+        <v>45952.67048277515</v>
       </c>
       <c r="K7" s="6">
-        <v>0.3546920898148148</v>
+        <v>0.6704827753472222</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -846,13 +847,13 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"unicode"</formula>

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-22 16:05:29.800908 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 08:56:35.548098 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,7 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -750,13 +749,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="J5" s="5">
-        <v>45952.67048277515</v>
+        <v>45953.37263262019</v>
       </c>
       <c r="K5" s="6">
-        <v>0.6704827753472222</v>
+        <v>0.3726326204050926</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -789,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="J6" s="5">
-        <v>45952.67048277515</v>
+        <v>45953.37263262019</v>
       </c>
       <c r="K6" s="6">
-        <v>0.6704827753472222</v>
+        <v>0.3726326204050926</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -828,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="J7" s="5">
-        <v>45952.67048277515</v>
+        <v>45953.37263262019</v>
       </c>
       <c r="K7" s="6">
-        <v>0.6704827753472222</v>
+        <v>0.3726326204050926</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -847,13 +846,13 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"unicode"</formula>

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 08:56:35.548098 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 09:11:17.582355 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -752,10 +753,10 @@
         <v>45953</v>
       </c>
       <c r="J5" s="5">
-        <v>45953.37263262019</v>
+        <v>45953.38284100194</v>
       </c>
       <c r="K5" s="6">
-        <v>0.3726326204050926</v>
+        <v>0.3828410021759259</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -791,10 +792,10 @@
         <v>45953</v>
       </c>
       <c r="J6" s="5">
-        <v>45953.37263262019</v>
+        <v>45953.38284100194</v>
       </c>
       <c r="K6" s="6">
-        <v>0.3726326204050926</v>
+        <v>0.3828410021759259</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -830,10 +831,10 @@
         <v>45953</v>
       </c>
       <c r="J7" s="5">
-        <v>45953.37263262019</v>
+        <v>45953.38284100194</v>
       </c>
       <c r="K7" s="6">
-        <v>0.3726326204050926</v>
+        <v>0.3828410021759259</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -849,13 +850,13 @@
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 09:11:17.582355 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 10:36:41.920688 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -753,10 +753,10 @@
         <v>45953</v>
       </c>
       <c r="J5" s="5">
-        <v>45953.38284100194</v>
+        <v>45953.44215047267</v>
       </c>
       <c r="K5" s="6">
-        <v>0.3828410021759259</v>
+        <v>0.4421504728819445</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -792,10 +792,10 @@
         <v>45953</v>
       </c>
       <c r="J6" s="5">
-        <v>45953.38284100194</v>
+        <v>45953.44215047267</v>
       </c>
       <c r="K6" s="6">
-        <v>0.3828410021759259</v>
+        <v>0.4421504728819445</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -831,10 +831,10 @@
         <v>45953</v>
       </c>
       <c r="J7" s="5">
-        <v>45953.38284100194</v>
+        <v>45953.44215047267</v>
       </c>
       <c r="K7" s="6">
-        <v>0.3828410021759259</v>
+        <v>0.4421504728819445</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -847,16 +847,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 10:36:41.920688 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 10:39:05.941606 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -593,9 +593,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -753,10 +752,10 @@
         <v>45953</v>
       </c>
       <c r="J5" s="5">
-        <v>45953.44215047267</v>
+        <v>45953.44381741915</v>
       </c>
       <c r="K5" s="6">
-        <v>0.4421504728819445</v>
+        <v>0.4438174193634259</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -792,10 +791,10 @@
         <v>45953</v>
       </c>
       <c r="J6" s="5">
-        <v>45953.44215047267</v>
+        <v>45953.44381741915</v>
       </c>
       <c r="K6" s="6">
-        <v>0.4421504728819445</v>
+        <v>0.4438174193634259</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -831,10 +830,10 @@
         <v>45953</v>
       </c>
       <c r="J7" s="5">
-        <v>45953.44215047267</v>
+        <v>45953.44381741915</v>
       </c>
       <c r="K7" s="6">
-        <v>0.4421504728819445</v>
+        <v>0.4438174193634259</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -850,10 +849,10 @@
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"unicode"</formula>

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-23 10:39:05.941606 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-27 12:46:23.854668 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -749,13 +749,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="J5" s="5">
-        <v>45953.44381741915</v>
+        <v>45957.53221914006</v>
       </c>
       <c r="K5" s="6">
-        <v>0.4438174193634259</v>
+        <v>0.5322191402777777</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -788,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="J6" s="5">
-        <v>45953.44381741915</v>
+        <v>45957.53221914006</v>
       </c>
       <c r="K6" s="6">
-        <v>0.4438174193634259</v>
+        <v>0.5322191402777777</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="J7" s="5">
-        <v>45953.44381741915</v>
+        <v>45957.53221914006</v>
       </c>
       <c r="K7" s="6">
-        <v>0.4438174193634259</v>
+        <v>0.5322191402777777</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-27 12:46:23.854668 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 08:49:20.531995 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -749,13 +749,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="J5" s="5">
-        <v>45957.53221914006</v>
+        <v>45958.36759728625</v>
       </c>
       <c r="K5" s="6">
-        <v>0.5322191402777777</v>
+        <v>0.3675972864583333</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -788,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="J6" s="5">
-        <v>45957.53221914006</v>
+        <v>45958.36759728625</v>
       </c>
       <c r="K6" s="6">
-        <v>0.5322191402777777</v>
+        <v>0.3675972864583333</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="J7" s="5">
-        <v>45957.53221914006</v>
+        <v>45958.36759728625</v>
       </c>
       <c r="K7" s="6">
-        <v>0.5322191402777777</v>
+        <v>0.3675972864583333</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -846,16 +846,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 08:49:20.531995 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 09:09:30.803373 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,8 @@
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -752,10 +753,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="5">
-        <v>45958.36759728625</v>
+        <v>45958.38160472435</v>
       </c>
       <c r="K5" s="6">
-        <v>0.3675972864583333</v>
+        <v>0.3816047245601851</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -791,10 +792,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="5">
-        <v>45958.36759728625</v>
+        <v>45958.38160472435</v>
       </c>
       <c r="K6" s="6">
-        <v>0.3675972864583333</v>
+        <v>0.3816047245601851</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -830,10 +831,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="5">
-        <v>45958.36759728625</v>
+        <v>45958.38160472435</v>
       </c>
       <c r="K7" s="6">
-        <v>0.3675972864583333</v>
+        <v>0.3816047245601851</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -849,13 +850,13 @@
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 09:09:30.803373 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 09:13:49.503421 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,7 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -753,10 +752,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="5">
-        <v>45958.38160472435</v>
+        <v>45958.38459965795</v>
       </c>
       <c r="K5" s="6">
-        <v>0.3816047245601851</v>
+        <v>0.3845996581365741</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -792,10 +791,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="5">
-        <v>45958.38160472435</v>
+        <v>45958.38459965795</v>
       </c>
       <c r="K6" s="6">
-        <v>0.3816047245601851</v>
+        <v>0.3845996581365741</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -831,10 +830,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="5">
-        <v>45958.38160472435</v>
+        <v>45958.38459965795</v>
       </c>
       <c r="K7" s="6">
-        <v>0.3816047245601851</v>
+        <v>0.3845996581365741</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -847,16 +846,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 09:13:49.503421 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 10:53:08.269976 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -752,10 +752,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="5">
-        <v>45958.38459965795</v>
+        <v>45958.45356651377</v>
       </c>
       <c r="K5" s="6">
-        <v>0.3845996581365741</v>
+        <v>0.4535665140046296</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -791,10 +791,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="5">
-        <v>45958.38459965795</v>
+        <v>45958.45356651377</v>
       </c>
       <c r="K6" s="6">
-        <v>0.3845996581365741</v>
+        <v>0.4535665140046296</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -830,10 +830,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="5">
-        <v>45958.38459965795</v>
+        <v>45958.45356651377</v>
       </c>
       <c r="K7" s="6">
-        <v>0.3845996581365741</v>
+        <v>0.4535665140046296</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -846,16 +846,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 10:53:08.269976 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 14:45:23.277127 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -752,10 +752,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="5">
-        <v>45958.45356651377</v>
+        <v>45958.61485009646</v>
       </c>
       <c r="K5" s="6">
-        <v>0.4535665140046296</v>
+        <v>0.6148500971296296</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -791,10 +791,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="5">
-        <v>45958.45356651377</v>
+        <v>45958.61485009646</v>
       </c>
       <c r="K6" s="6">
-        <v>0.4535665140046296</v>
+        <v>0.6148500971296296</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -830,10 +830,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="5">
-        <v>45958.45356651377</v>
+        <v>45958.61485009646</v>
       </c>
       <c r="K7" s="6">
-        <v>0.4535665140046296</v>
+        <v>0.6148500971296296</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -846,16 +846,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 14:45:23.277127 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:24:51.156061 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,8 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -752,10 +753,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="5">
-        <v>45958.61485009646</v>
+        <v>45958.64225761175</v>
       </c>
       <c r="K5" s="6">
-        <v>0.6148500971296296</v>
+        <v>0.6422576119328703</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -791,10 +792,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="5">
-        <v>45958.61485009646</v>
+        <v>45958.64225761175</v>
       </c>
       <c r="K6" s="6">
-        <v>0.6148500971296296</v>
+        <v>0.6422576119328703</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -830,10 +831,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="5">
-        <v>45958.61485009646</v>
+        <v>45958.64225761175</v>
       </c>
       <c r="K7" s="6">
-        <v>0.6148500971296296</v>
+        <v>0.6422576119328703</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -846,10 +847,10 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"unicode"</formula>

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:24:51.156061 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:27:17.797105 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -753,10 +753,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="5">
-        <v>45958.64225761175</v>
+        <v>45958.64395454742</v>
       </c>
       <c r="K5" s="6">
-        <v>0.6422576119328703</v>
+        <v>0.6439545476388889</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -792,10 +792,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="5">
-        <v>45958.64225761175</v>
+        <v>45958.64395454742</v>
       </c>
       <c r="K6" s="6">
-        <v>0.6422576119328703</v>
+        <v>0.6439545476388889</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -831,10 +831,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="5">
-        <v>45958.64225761175</v>
+        <v>45958.64395454742</v>
       </c>
       <c r="K7" s="6">
-        <v>0.6422576119328703</v>
+        <v>0.6439545476388889</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -850,10 +850,10 @@
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"datetime"</formula>

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:27:17.797105 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:53:37.167903 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -753,10 +753,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="5">
-        <v>45958.64395454742</v>
+        <v>45958.66223424018</v>
       </c>
       <c r="K5" s="6">
-        <v>0.6439545476388889</v>
+        <v>0.6622342404050926</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -792,10 +792,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="5">
-        <v>45958.64395454742</v>
+        <v>45958.66223424018</v>
       </c>
       <c r="K6" s="6">
-        <v>0.6439545476388889</v>
+        <v>0.6622342404050926</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -831,10 +831,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="5">
-        <v>45958.64395454742</v>
+        <v>45958.66223424018</v>
       </c>
       <c r="K7" s="6">
-        <v>0.6439545476388889</v>
+        <v>0.6622342404050926</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -847,16 +847,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:53:37.167903 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:55:32.629467 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -753,10 +753,10 @@
         <v>45958</v>
       </c>
       <c r="J5" s="5">
-        <v>45958.66223424018</v>
+        <v>45958.66357062846</v>
       </c>
       <c r="K5" s="6">
-        <v>0.6622342404050926</v>
+        <v>0.6635706286921296</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -792,10 +792,10 @@
         <v>45958</v>
       </c>
       <c r="J6" s="5">
-        <v>45958.66223424018</v>
+        <v>45958.66357062846</v>
       </c>
       <c r="K6" s="6">
-        <v>0.6622342404050926</v>
+        <v>0.6635706286921296</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -831,10 +831,10 @@
         <v>45958</v>
       </c>
       <c r="J7" s="5">
-        <v>45958.66223424018</v>
+        <v>45958.66357062846</v>
       </c>
       <c r="K7" s="6">
-        <v>0.6622342404050926</v>
+        <v>0.6635706286921296</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -847,16 +847,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>a_int</t>
   </si>
@@ -115,16 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-28 15:55:32.629467 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 11:49:35.057923 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -268,8 +259,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:M7" totalsRowShown="0">
-  <autoFilter ref="B4:M7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:L7" totalsRowShown="0">
+  <autoFilter ref="A4:L7"/>
   <tableColumns count="12">
     <tableColumn id="1" name="a_int"/>
     <tableColumn id="2" name="a_constrainedint"/>
@@ -575,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -584,29 +575,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -615,7 +604,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -624,10 +613,10 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>20</v>
@@ -639,238 +628,229 @@
         <v>20</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
+    <row r="4" spans="1:12" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
         <v>1.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="b">
+      <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="4">
-        <v>45958</v>
-      </c>
-      <c r="J5" s="5">
-        <v>45958.66357062846</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.6635706286921296</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="H5" s="4">
+        <v>45959</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45959.49276572079</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.4927657209837963</v>
+      </c>
+      <c r="K5" s="7">
         <v>0.1062847222222222</v>
       </c>
-      <c r="M5" s="8">
+      <c r="L5" s="8">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>2</v>
+      </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
         <v>2.5</v>
       </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="b">
+      <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
-        <v>45958</v>
-      </c>
-      <c r="J6" s="5">
-        <v>45958.66357062846</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.6635706286921296</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="H6" s="4">
+        <v>45959</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45959.49276572079</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.4927657209837963</v>
+      </c>
+      <c r="K6" s="7">
         <v>0.1062847222222222</v>
       </c>
-      <c r="M6" s="8">
+      <c r="L6" s="8">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>3</v>
+      </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
         <v>3.5</v>
       </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="b">
+      <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="4">
-        <v>45958</v>
-      </c>
-      <c r="J7" s="5">
-        <v>45958.66357062846</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.6635706286921296</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="H7" s="4">
+        <v>45959</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45959.49276572079</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.4927657209837963</v>
+      </c>
+      <c r="K7" s="7">
         <v>0.1062847222222222</v>
       </c>
-      <c r="M7" s="8">
+      <c r="L7" s="8">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:N2">
+  <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="C5:C7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="B5:B7">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="F5:F7">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="E5:E7">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="G5:G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="F5:F7">
       <formula1>"red,green,blue"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="H5:H7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="G5:G7">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 11:49:35.057923 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 12:23:01.877923 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,8 @@
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -733,10 +734,10 @@
         <v>45959</v>
       </c>
       <c r="I5" s="5">
-        <v>45959.49276572079</v>
+        <v>45959.51599252147</v>
       </c>
       <c r="J5" s="6">
-        <v>0.4927657209837963</v>
+        <v>0.5159925216898148</v>
       </c>
       <c r="K5" s="7">
         <v>0.1062847222222222</v>
@@ -772,10 +773,10 @@
         <v>45959</v>
       </c>
       <c r="I6" s="5">
-        <v>45959.49276572079</v>
+        <v>45959.51599252147</v>
       </c>
       <c r="J6" s="6">
-        <v>0.4927657209837963</v>
+        <v>0.5159925216898148</v>
       </c>
       <c r="K6" s="7">
         <v>0.1062847222222222</v>
@@ -811,10 +812,10 @@
         <v>45959</v>
       </c>
       <c r="I7" s="5">
-        <v>45959.49276572079</v>
+        <v>45959.51599252147</v>
       </c>
       <c r="J7" s="6">
-        <v>0.4927657209837963</v>
+        <v>0.5159925216898148</v>
       </c>
       <c r="K7" s="7">
         <v>0.1062847222222222</v>
@@ -827,16 +828,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"datetime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 12:23:01.877923 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 12:24:45.860219 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -734,10 +734,10 @@
         <v>45959</v>
       </c>
       <c r="I5" s="5">
-        <v>45959.51599252147</v>
+        <v>45959.51719599987</v>
       </c>
       <c r="J5" s="6">
-        <v>0.5159925216898148</v>
+        <v>0.5171960000925926</v>
       </c>
       <c r="K5" s="7">
         <v>0.1062847222222222</v>
@@ -773,10 +773,10 @@
         <v>45959</v>
       </c>
       <c r="I6" s="5">
-        <v>45959.51599252147</v>
+        <v>45959.51719599987</v>
       </c>
       <c r="J6" s="6">
-        <v>0.5159925216898148</v>
+        <v>0.5171960000925926</v>
       </c>
       <c r="K6" s="7">
         <v>0.1062847222222222</v>
@@ -812,10 +812,10 @@
         <v>45959</v>
       </c>
       <c r="I7" s="5">
-        <v>45959.51599252147</v>
+        <v>45959.51719599987</v>
       </c>
       <c r="J7" s="6">
-        <v>0.5159925216898148</v>
+        <v>0.5171960000925926</v>
       </c>
       <c r="K7" s="7">
         <v>0.1062847222222222</v>
@@ -828,13 +828,13 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"datetime"</formula>

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 12:24:45.860219 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 13:05:05.686896 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -734,10 +734,10 @@
         <v>45959</v>
       </c>
       <c r="I5" s="5">
-        <v>45959.51719599987</v>
+        <v>45959.54520328404</v>
       </c>
       <c r="J5" s="6">
-        <v>0.5171960000925926</v>
+        <v>0.5452032842361111</v>
       </c>
       <c r="K5" s="7">
         <v>0.1062847222222222</v>
@@ -773,10 +773,10 @@
         <v>45959</v>
       </c>
       <c r="I6" s="5">
-        <v>45959.51719599987</v>
+        <v>45959.54520328404</v>
       </c>
       <c r="J6" s="6">
-        <v>0.5171960000925926</v>
+        <v>0.5452032842361111</v>
       </c>
       <c r="K6" s="7">
         <v>0.1062847222222222</v>
@@ -812,10 +812,10 @@
         <v>45959</v>
       </c>
       <c r="I7" s="5">
-        <v>45959.51719599987</v>
+        <v>45959.54520328404</v>
       </c>
       <c r="J7" s="6">
-        <v>0.5171960000925926</v>
+        <v>0.5452032842361111</v>
       </c>
       <c r="K7" s="7">
         <v>0.1062847222222222</v>
@@ -828,16 +828,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-29 13:05:05.686896 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-30 13:30:37.014642 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,7 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -731,13 +730,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="I5" s="5">
-        <v>45959.54520328404</v>
+        <v>45960.56292694524</v>
       </c>
       <c r="J5" s="6">
-        <v>0.5452032842361111</v>
+        <v>0.562926945462963</v>
       </c>
       <c r="K5" s="7">
         <v>0.1062847222222222</v>
@@ -770,13 +769,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="I6" s="5">
-        <v>45959.54520328404</v>
+        <v>45960.56292694524</v>
       </c>
       <c r="J6" s="6">
-        <v>0.5452032842361111</v>
+        <v>0.562926945462963</v>
       </c>
       <c r="K6" s="7">
         <v>0.1062847222222222</v>
@@ -809,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="I7" s="5">
-        <v>45959.54520328404</v>
+        <v>45960.56292694524</v>
       </c>
       <c r="J7" s="6">
-        <v>0.5452032842361111</v>
+        <v>0.562926945462963</v>
       </c>
       <c r="K7" s="7">
         <v>0.1062847222222222</v>
@@ -828,16 +827,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"datetime"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-10-30 13:30:37.014642 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-03 12:51:16.611804 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,8 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -730,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="I5" s="5">
-        <v>45960.56292694524</v>
+        <v>45964.53560749324</v>
       </c>
       <c r="J5" s="6">
-        <v>0.562926945462963</v>
+        <v>0.5356074934490741</v>
       </c>
       <c r="K5" s="7">
         <v>0.1062847222222222</v>
@@ -769,13 +770,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="I6" s="5">
-        <v>45960.56292694524</v>
+        <v>45964.53560749324</v>
       </c>
       <c r="J6" s="6">
-        <v>0.562926945462963</v>
+        <v>0.5356074934490741</v>
       </c>
       <c r="K6" s="7">
         <v>0.1062847222222222</v>
@@ -808,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="I7" s="5">
-        <v>45960.56292694524</v>
+        <v>45964.53560749324</v>
       </c>
       <c r="J7" s="6">
-        <v>0.562926945462963</v>
+        <v>0.5356074934490741</v>
       </c>
       <c r="K7" s="7">
         <v>0.1062847222222222</v>
@@ -827,13 +828,13 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"datetime"</formula>

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-03 12:51:16.611804 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-03 14:58:42.017435 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -734,10 +734,10 @@
         <v>45964</v>
       </c>
       <c r="I5" s="5">
-        <v>45964.53560749324</v>
+        <v>45964.62409593197</v>
       </c>
       <c r="J5" s="6">
-        <v>0.5356074934490741</v>
+        <v>0.6240959321875</v>
       </c>
       <c r="K5" s="7">
         <v>0.1062847222222222</v>
@@ -773,10 +773,10 @@
         <v>45964</v>
       </c>
       <c r="I6" s="5">
-        <v>45964.53560749324</v>
+        <v>45964.62409593197</v>
       </c>
       <c r="J6" s="6">
-        <v>0.5356074934490741</v>
+        <v>0.6240959321875</v>
       </c>
       <c r="K6" s="7">
         <v>0.1062847222222222</v>
@@ -812,10 +812,10 @@
         <v>45964</v>
       </c>
       <c r="I7" s="5">
-        <v>45964.53560749324</v>
+        <v>45964.62409593197</v>
       </c>
       <c r="J7" s="6">
-        <v>0.5356074934490741</v>
+        <v>0.6240959321875</v>
       </c>
       <c r="K7" s="7">
         <v>0.1062847222222222</v>
@@ -828,16 +828,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"unicode"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-03 14:58:42.017435 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-04 14:52:06.711705 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="I5" s="5">
-        <v>45964.62409593197</v>
+        <v>45965.6195206722</v>
       </c>
       <c r="J5" s="6">
-        <v>0.6240959321875</v>
+        <v>0.6195206724305555</v>
       </c>
       <c r="K5" s="7">
         <v>0.1062847222222222</v>
@@ -770,13 +770,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="I6" s="5">
-        <v>45964.62409593197</v>
+        <v>45965.6195206722</v>
       </c>
       <c r="J6" s="6">
-        <v>0.6240959321875</v>
+        <v>0.6195206724305555</v>
       </c>
       <c r="K6" s="7">
         <v>0.1062847222222222</v>
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="I7" s="5">
-        <v>45964.62409593197</v>
+        <v>45965.6195206722</v>
       </c>
       <c r="J7" s="6">
-        <v>0.6240959321875</v>
+        <v>0.6195206724305555</v>
       </c>
       <c r="K7" s="7">
         <v>0.1062847222222222</v>
@@ -831,13 +831,13 @@
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-04 14:52:06.711705 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-05 09:42:01.316919 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,7 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -731,13 +730,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="I5" s="5">
-        <v>45965.6195206722</v>
+        <v>45966.40418036842</v>
       </c>
       <c r="J5" s="6">
-        <v>0.6195206724305555</v>
+        <v>0.4041803686226852</v>
       </c>
       <c r="K5" s="7">
         <v>0.1062847222222222</v>
@@ -770,13 +769,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="I6" s="5">
-        <v>45965.6195206722</v>
+        <v>45966.40418036842</v>
       </c>
       <c r="J6" s="6">
-        <v>0.6195206724305555</v>
+        <v>0.4041803686226852</v>
       </c>
       <c r="K6" s="7">
         <v>0.1062847222222222</v>
@@ -809,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="I7" s="5">
-        <v>45965.6195206722</v>
+        <v>45966.40418036842</v>
       </c>
       <c r="J7" s="6">
-        <v>0.6195206724305555</v>
+        <v>0.4041803686226852</v>
       </c>
       <c r="K7" s="7">
         <v>0.1062847222222222</v>
@@ -828,16 +827,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-05 09:42:01.316919 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-07 10:26:03.558581 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,8 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -730,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="I5" s="5">
-        <v>45966.40418036842</v>
+        <v>45968.43476198412</v>
       </c>
       <c r="J5" s="6">
-        <v>0.4041803686226852</v>
+        <v>0.4347619843402778</v>
       </c>
       <c r="K5" s="7">
         <v>0.1062847222222222</v>
@@ -769,13 +770,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="I6" s="5">
-        <v>45966.40418036842</v>
+        <v>45968.43476198412</v>
       </c>
       <c r="J6" s="6">
-        <v>0.4041803686226852</v>
+        <v>0.4347619843402778</v>
       </c>
       <c r="K6" s="7">
         <v>0.1062847222222222</v>
@@ -808,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>45966</v>
+        <v>45968</v>
       </c>
       <c r="I7" s="5">
-        <v>45966.40418036842</v>
+        <v>45968.43476198412</v>
       </c>
       <c r="J7" s="6">
-        <v>0.4041803686226852</v>
+        <v>0.4347619843402778</v>
       </c>
       <c r="K7" s="7">
         <v>0.1062847222222222</v>
@@ -827,16 +828,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-07 10:26:03.558581 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-07 10:36:46.378391 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -583,9 +583,8 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -734,10 +733,10 @@
         <v>45968</v>
       </c>
       <c r="I5" s="5">
-        <v>45968.43476198412</v>
+        <v>45968.44220230055</v>
       </c>
       <c r="J5" s="6">
-        <v>0.4347619843402778</v>
+        <v>0.4422023007407407</v>
       </c>
       <c r="K5" s="7">
         <v>0.1062847222222222</v>
@@ -773,10 +772,10 @@
         <v>45968</v>
       </c>
       <c r="I6" s="5">
-        <v>45968.43476198412</v>
+        <v>45968.44220230055</v>
       </c>
       <c r="J6" s="6">
-        <v>0.4347619843402778</v>
+        <v>0.4422023007407407</v>
       </c>
       <c r="K6" s="7">
         <v>0.1062847222222222</v>
@@ -812,10 +811,10 @@
         <v>45968</v>
       </c>
       <c r="I7" s="5">
-        <v>45968.43476198412</v>
+        <v>45968.44220230055</v>
       </c>
       <c r="J7" s="6">
-        <v>0.4347619843402778</v>
+        <v>0.4422023007407407</v>
       </c>
       <c r="K7" s="7">
         <v>0.1062847222222222</v>
@@ -831,13 +830,13 @@
       <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-07 10:36:46.378391 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-07 15:38:14.319154 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,9 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -733,10 +734,10 @@
         <v>45968</v>
       </c>
       <c r="I5" s="5">
-        <v>45968.44220230055</v>
+        <v>45968.65155319035</v>
       </c>
       <c r="J5" s="6">
-        <v>0.4422023007407407</v>
+        <v>0.6515531905555555</v>
       </c>
       <c r="K5" s="7">
         <v>0.1062847222222222</v>
@@ -772,10 +773,10 @@
         <v>45968</v>
       </c>
       <c r="I6" s="5">
-        <v>45968.44220230055</v>
+        <v>45968.65155319035</v>
       </c>
       <c r="J6" s="6">
-        <v>0.4422023007407407</v>
+        <v>0.6515531905555555</v>
       </c>
       <c r="K6" s="7">
         <v>0.1062847222222222</v>
@@ -811,10 +812,10 @@
         <v>45968</v>
       </c>
       <c r="I7" s="5">
-        <v>45968.44220230055</v>
+        <v>45968.65155319035</v>
       </c>
       <c r="J7" s="6">
-        <v>0.4422023007407407</v>
+        <v>0.6515531905555555</v>
       </c>
       <c r="K7" s="7">
         <v>0.1062847222222222</v>
@@ -827,16 +828,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"boolean"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"unicode"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-07 15:38:14.319154 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-12 11:29:21.393911 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,7 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -731,13 +730,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>45968</v>
+        <v>45973</v>
       </c>
       <c r="I5" s="5">
-        <v>45968.65155319035</v>
+        <v>45973.47871558923</v>
       </c>
       <c r="J5" s="6">
-        <v>0.6515531905555555</v>
+        <v>0.4787155894560185</v>
       </c>
       <c r="K5" s="7">
         <v>0.1062847222222222</v>
@@ -770,13 +769,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>45968</v>
+        <v>45973</v>
       </c>
       <c r="I6" s="5">
-        <v>45968.65155319035</v>
+        <v>45973.47871558923</v>
       </c>
       <c r="J6" s="6">
-        <v>0.6515531905555555</v>
+        <v>0.4787155894560185</v>
       </c>
       <c r="K6" s="7">
         <v>0.1062847222222222</v>
@@ -809,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>45968</v>
+        <v>45973</v>
       </c>
       <c r="I7" s="5">
-        <v>45968.65155319035</v>
+        <v>45973.47871558923</v>
       </c>
       <c r="J7" s="6">
-        <v>0.6515531905555555</v>
+        <v>0.4787155894560185</v>
       </c>
       <c r="K7" s="7">
         <v>0.1062847222222222</v>
@@ -831,13 +830,13 @@
       <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"numeric"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-12 11:29:21.393911 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-12 11:38:44.926716 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -733,10 +733,10 @@
         <v>45973</v>
       </c>
       <c r="I5" s="5">
-        <v>45973.47871558923</v>
+        <v>45973.48524075303</v>
       </c>
       <c r="J5" s="6">
-        <v>0.4787155894560185</v>
+        <v>0.4852407532523148</v>
       </c>
       <c r="K5" s="7">
         <v>0.1062847222222222</v>
@@ -772,10 +772,10 @@
         <v>45973</v>
       </c>
       <c r="I6" s="5">
-        <v>45973.47871558923</v>
+        <v>45973.48524075303</v>
       </c>
       <c r="J6" s="6">
-        <v>0.4787155894560185</v>
+        <v>0.4852407532523148</v>
       </c>
       <c r="K6" s="7">
         <v>0.1062847222222222</v>
@@ -811,10 +811,10 @@
         <v>45973</v>
       </c>
       <c r="I7" s="5">
-        <v>45973.47871558923</v>
+        <v>45973.48524075303</v>
       </c>
       <c r="J7" s="6">
-        <v>0.4787155894560185</v>
+        <v>0.4852407532523148</v>
       </c>
       <c r="K7" s="7">
         <v>0.1062847222222222</v>
@@ -827,16 +827,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"numeric"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"datetime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>a_int</t>
   </si>
@@ -115,7 +115,10 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-12 11:38:44.926716 - DatamodelUrl=None</t>
+    <t>#To enter a numeric value in a string-type field, prefix the value with an apostrophe (') to ensure it is treated as text.</t>
+  </si>
+  <si>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-24 15:02:32.926946 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -190,17 +193,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -259,8 +273,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:L7" totalsRowShown="0">
-  <autoFilter ref="A4:L7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:L8" totalsRowShown="0">
+  <autoFilter ref="A5:L8"/>
   <tableColumns count="12">
     <tableColumn id="1" name="a_int"/>
     <tableColumn id="2" name="a_constrainedint"/>
@@ -566,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -583,274 +597,275 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:12" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
+    <row r="6" spans="1:12">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="4">
         <v>1.5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="4">
-        <v>45973</v>
-      </c>
-      <c r="I5" s="5">
-        <v>45973.48524075303</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.4852407532523148</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="H6" s="5">
+        <v>45985</v>
+      </c>
+      <c r="I6" s="6">
+        <v>45985.62676849171</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.6267684919444444</v>
+      </c>
+      <c r="K6" s="8">
         <v>0.1062847222222222</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L6" s="9">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
+    <row r="7" spans="1:12">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="4">
         <v>2.5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="4">
-        <v>45973</v>
-      </c>
-      <c r="I6" s="5">
-        <v>45973.48524075303</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.4852407532523148</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="H7" s="5">
+        <v>45985</v>
+      </c>
+      <c r="I7" s="6">
+        <v>45985.62676849171</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.6267684919444444</v>
+      </c>
+      <c r="K7" s="8">
         <v>0.1062847222222222</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L7" s="9">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
+    <row r="8" spans="1:12">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="4">
         <v>3.5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="b">
+      <c r="G8" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
-        <v>45973</v>
-      </c>
-      <c r="I7" s="5">
-        <v>45973.48524075303</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.4852407532523148</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="H8" s="5">
+        <v>45985</v>
+      </c>
+      <c r="I8" s="6">
+        <v>45985.62676849171</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.6267684919444444</v>
+      </c>
+      <c r="K8" s="8">
         <v>0.1062847222222222</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L8" s="9">
         <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:M2">
+  <conditionalFormatting sqref="A3:M3">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="B5:B7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="B6:B8">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="E5:E7">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="E6:E8">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="F5:F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="F6:F8">
       <formula1>"red,green,blue"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="G5:G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="G6:G8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>a_int</t>
   </si>
@@ -115,10 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#To enter a numeric value in a string-type field, prefix the value with an apostrophe (') to ensure it is treated as text.</t>
-  </si>
-  <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-24 15:02:32.926946 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-24 15:14:57.971838 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -273,8 +270,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:L8" totalsRowShown="0">
-  <autoFilter ref="A5:L8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:L7" totalsRowShown="0">
+  <autoFilter ref="A4:L7"/>
   <tableColumns count="12">
     <tableColumn id="1" name="a_int"/>
     <tableColumn id="2" name="a_constrainedint"/>
@@ -580,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -605,135 +602,174 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
+    <row r="4" spans="1:12" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45985</v>
+      </c>
+      <c r="I5" s="6">
+        <v>45985.63539205571</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.6353920559143519</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.1062847222222222</v>
+      </c>
+      <c r="L5" s="9">
+        <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
         <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
@@ -748,10 +784,10 @@
         <v>45985</v>
       </c>
       <c r="I6" s="6">
-        <v>45985.62676849171</v>
+        <v>45985.63539205571</v>
       </c>
       <c r="J6" s="7">
-        <v>0.6267684919444444</v>
+        <v>0.6353920559143519</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -763,34 +799,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <v>45985</v>
       </c>
       <c r="I7" s="6">
-        <v>45985.62676849171</v>
+        <v>45985.63539205571</v>
       </c>
       <c r="J7" s="7">
-        <v>0.6267684919444444</v>
+        <v>0.6353920559143519</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -800,72 +836,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>45985</v>
-      </c>
-      <c r="I8" s="6">
-        <v>45985.62676849171</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0.6267684919444444</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0.1062847222222222</v>
-      </c>
-      <c r="L8" s="9">
-        <f> [[#This Row],[a_int]] * [[#This Row],[b_float]]</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:M3">
+  <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"unicode"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"datetime"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="B6:B8">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select integer" prompt="between 0 and 10" sqref="B5:B7">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="E6:E8">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select string" prompt="with less than 10 characters" sqref="E5:E7">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="F6:F8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select from list" prompt="must be one of: ['red', 'green', 'blue']" sqref="F5:F7">
       <formula1>"red,green,blue"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="G6:G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="must be a boolean value" prompt="TRUE or FALSE only" sqref="G5:G7">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-24 15:14:57.971838 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-24 15:19:53.646436 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,7 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -745,10 +744,10 @@
         <v>45985</v>
       </c>
       <c r="I5" s="6">
-        <v>45985.63539205571</v>
+        <v>45985.63881383801</v>
       </c>
       <c r="J5" s="7">
-        <v>0.6353920559143519</v>
+        <v>0.6388138382407408</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -784,10 +783,10 @@
         <v>45985</v>
       </c>
       <c r="I6" s="6">
-        <v>45985.63539205571</v>
+        <v>45985.63881383801</v>
       </c>
       <c r="J6" s="7">
-        <v>0.6353920559143519</v>
+        <v>0.6388138382407408</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -823,10 +822,10 @@
         <v>45985</v>
       </c>
       <c r="I7" s="6">
-        <v>45985.63539205571</v>
+        <v>45985.63881383801</v>
       </c>
       <c r="J7" s="7">
-        <v>0.6353920559143519</v>
+        <v>0.6388138382407408</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-11-24 15:19:53.646436 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-12-05 11:58:46.773265 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -741,13 +741,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>45985</v>
+        <v>45996</v>
       </c>
       <c r="I5" s="6">
-        <v>45985.63881383801</v>
+        <v>45996.49915111715</v>
       </c>
       <c r="J5" s="7">
-        <v>0.6388138382407408</v>
+        <v>0.4991511173611112</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -780,13 +780,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="5">
-        <v>45985</v>
+        <v>45996</v>
       </c>
       <c r="I6" s="6">
-        <v>45985.63881383801</v>
+        <v>45996.49915111715</v>
       </c>
       <c r="J6" s="7">
-        <v>0.6388138382407408</v>
+        <v>0.4991511173611112</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>45985</v>
+        <v>45996</v>
       </c>
       <c r="I7" s="6">
-        <v>45985.63881383801</v>
+        <v>45996.49915111715</v>
       </c>
       <c r="J7" s="7">
-        <v>0.6388138382407408</v>
+        <v>0.4991511173611112</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -838,16 +838,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"boolean"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"unicode"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"boolean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"datetime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"unicode"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/xl/test.xlsx
+++ b/xl/test.xlsx
@@ -115,7 +115,7 @@
     <t>B Calcfloat</t>
   </si>
   <si>
-    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-12-05 11:58:46.773265 - DatamodelUrl=None</t>
+    <t>#Title=DataTypesArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-12-05 12:00:00.695905 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,8 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -744,10 +745,10 @@
         <v>45996</v>
       </c>
       <c r="I5" s="6">
-        <v>45996.49915111715</v>
+        <v>45996.50000672592</v>
       </c>
       <c r="J5" s="7">
-        <v>0.4991511173611112</v>
+        <v>0.5000067261226852</v>
       </c>
       <c r="K5" s="8">
         <v>0.1062847222222222</v>
@@ -783,10 +784,10 @@
         <v>45996</v>
       </c>
       <c r="I6" s="6">
-        <v>45996.49915111715</v>
+        <v>45996.50000672592</v>
       </c>
       <c r="J6" s="7">
-        <v>0.4991511173611112</v>
+        <v>0.5000067261226852</v>
       </c>
       <c r="K6" s="8">
         <v>0.1062847222222222</v>
@@ -822,10 +823,10 @@
         <v>45996</v>
       </c>
       <c r="I7" s="6">
-        <v>45996.49915111715</v>
+        <v>45996.50000672592</v>
       </c>
       <c r="J7" s="7">
-        <v>0.4991511173611112</v>
+        <v>0.5000067261226852</v>
       </c>
       <c r="K7" s="8">
         <v>0.1062847222222222</v>
@@ -838,16 +839,16 @@
   </sheetData>
   <conditionalFormatting sqref="A2:M2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
